--- a/data/trans_dic/P21B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9433329044210323</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9356961632567123</v>
+        <v>0.9356961632567125</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9613230094008731</v>
@@ -697,7 +697,7 @@
         <v>0.9547702818059838</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9428400917486558</v>
+        <v>0.9428400917486557</v>
       </c>
     </row>
     <row r="5">
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8707510993195146</v>
+        <v>0.8573228016865099</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9158102661395936</v>
+        <v>0.9144134151521873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8628990960388387</v>
+        <v>0.8660772832764099</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8787958074682939</v>
+        <v>0.8723465486824108</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8739995224584959</v>
+        <v>0.8586603580947142</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>0.9027514199198773</v>
+        <v>0.8997793212854808</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9100026814286664</v>
+        <v>0.9050614385933482</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9151505189098895</v>
+        <v>0.9040322312980577</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9548320202867429</v>
+        <v>0.9562070361402267</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9119898093896979</v>
+        <v>0.9058015438627878</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9060081765963559</v>
+        <v>0.9054269230304091</v>
       </c>
     </row>
     <row r="6">
@@ -753,35 +753,35 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9903727368828075</v>
+        <v>0.9904590339104893</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9797756614310845</v>
+        <v>0.9867958878265806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9749395605035193</v>
+        <v>0.9708759852176071</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.9913675326701213</v>
+        <v>0.9911005074503343</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.97438624978565</v>
+        <v>0.9728679289522021</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9900682574307751</v>
+        <v>0.9901806570229005</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9954545913007072</v>
+        <v>0.9954131686327866</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9807823072912927</v>
+        <v>0.9805037761934622</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9661144905827097</v>
+        <v>0.9661581525971327</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.9403205796695024</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9400431571955112</v>
+        <v>0.9400431571955109</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9848645854265791</v>
@@ -817,7 +817,7 @@
         <v>0.9540872976755406</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9513493572485325</v>
+        <v>0.9513493572485324</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9766689576149512</v>
@@ -829,7 +829,7 @@
         <v>0.9481481099667597</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9465124249904028</v>
+        <v>0.9465124249904029</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8774790787850311</v>
+        <v>0.8803882123795276</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9420684654787833</v>
+        <v>0.9408850228316639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8572145410690615</v>
+        <v>0.841798399803363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8534592348264572</v>
+        <v>0.848592200815425</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9543551833416261</v>
+        <v>0.947759589446849</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9353172035188482</v>
+        <v>0.9307210668845115</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8970823376596135</v>
+        <v>0.8993305254259369</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9003250155827829</v>
+        <v>0.900164456846872</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9392592764787164</v>
+        <v>0.9381567094393382</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9467845352009586</v>
+        <v>0.9449862111620267</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9053249718543659</v>
+        <v>0.9053264458158368</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9088507159346775</v>
+        <v>0.908485618410754</v>
       </c>
     </row>
     <row r="9">
@@ -887,37 +887,37 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9929662191321652</v>
+        <v>0.9929509739719184</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9874425251443587</v>
+        <v>0.9777421071714505</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9811077313320418</v>
+        <v>0.9810573454289255</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9900935385693416</v>
+        <v>0.9901374702028106</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9820092541295015</v>
+        <v>0.9820095653147445</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9783518663921229</v>
+        <v>0.9769671552814474</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9914334377376205</v>
+        <v>0.9948206656398282</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9882459202471684</v>
+        <v>0.9881485227491873</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9736660284973057</v>
+        <v>0.9742402513194799</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9708773098936013</v>
+        <v>0.9742979910091812</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.9241228309567443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9280860653542562</v>
+        <v>0.9280860653542564</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>0.9105732707228698</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9517564315068663</v>
+        <v>0.9517564315068666</v>
       </c>
     </row>
     <row r="11">
@@ -976,38 +976,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8642687959304695</v>
+        <v>0.8661647955106482</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9163648216566299</v>
+        <v>0.9120562015654113</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7964246677172474</v>
+        <v>0.7971181457875818</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8580668958835238</v>
+        <v>0.8567931380851577</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.9048924668030328</v>
+        <v>0.8953295040588024</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8003043929118824</v>
+        <v>0.790497624724716</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9144265914275768</v>
+        <v>0.9141367585360789</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9406762560134109</v>
+        <v>0.9402450860382831</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9348960936772605</v>
+        <v>0.933366186410683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8403879492105502</v>
+        <v>0.8277691164760654</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9131261098278287</v>
+        <v>0.9153941637097738</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9846549526561041</v>
+        <v>0.9860599624937041</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9759497713132289</v>
+        <v>0.9760756667147223</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9721756147541659</v>
+        <v>0.969030194401999</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9632945006065317</v>
+        <v>0.9611958935219947</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9898485583928025</v>
+        <v>0.989943037276966</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9941068606292689</v>
+        <v>0.9939446155558261</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9941573557775116</v>
+        <v>0.9941906127220972</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9657735262162065</v>
+        <v>0.9571796793102654</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.974146324178055</v>
+        <v>0.9735820998033786</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0.9013051073838586</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9191417413598587</v>
+        <v>0.9191417413598586</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9694425867431112</v>
@@ -1097,7 +1097,7 @@
         <v>0.9243113837839114</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9229178216104416</v>
+        <v>0.9229178216104417</v>
       </c>
     </row>
     <row r="14">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9151320954499732</v>
+        <v>0.9249364371824833</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8650664003104707</v>
+        <v>0.8554676100723689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8830838228910453</v>
+        <v>0.8813187390065093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7615180714689538</v>
+        <v>0.7714316237763378</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9182972166887438</v>
+        <v>0.9080422844602818</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9146588738716241</v>
+        <v>0.9077090237040364</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8321551537137729</v>
+        <v>0.8192396357828783</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8488166320953551</v>
+        <v>0.8523242194110499</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9334630386072258</v>
+        <v>0.9365449490456337</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.917239427288262</v>
+        <v>0.9191782707165118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8769015564072921</v>
+        <v>0.8805983814660483</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8490400013194099</v>
+        <v>0.8509726915884127</v>
       </c>
     </row>
     <row r="15">
@@ -1158,34 +1158,34 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.98295492669165</v>
+        <v>0.9836129002092946</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9870692223637161</v>
+        <v>0.9869187262247175</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9914424145166837</v>
+        <v>0.990785570679822</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9907735902978343</v>
+        <v>0.9906934562013616</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9487196707088649</v>
+        <v>0.9500952296325971</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9582109355768315</v>
+        <v>0.9575023419211772</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9897113171979393</v>
+        <v>0.9895788817890268</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9843050715452932</v>
+        <v>0.9847179223225145</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9577274844542483</v>
+        <v>0.9552302468957293</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.960611021703196</v>
+        <v>0.9572017857596393</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.9277733548310667</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9204584200672221</v>
+        <v>0.9204584200672224</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9613682043947518</v>
@@ -1244,36 +1244,36 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8688106959451343</v>
+        <v>0.8673660271092392</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8093128872086049</v>
+        <v>0.8030648088899873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7785933586256056</v>
+        <v>0.8113936820830265</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7442396857808422</v>
+        <v>0.7523572131645795</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8125035545803357</v>
+        <v>0.8209264030614577</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9180373308690331</v>
+        <v>0.9168478125991548</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>0.8805371739806581</v>
+        <v>0.8763786717837431</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9152112087869696</v>
+        <v>0.919713912806697</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8938601624145097</v>
+        <v>0.8930521689991686</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8350616341520878</v>
+        <v>0.8354155647837255</v>
       </c>
     </row>
     <row r="18">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9908559454928285</v>
+        <v>0.991062301266066</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9721267303503299</v>
+        <v>0.9721267303503297</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9918651252733222</v>
@@ -1374,32 +1374,32 @@
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.9110680448313373</v>
+        <v>0.9303164473305352</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9172008022925345</v>
+        <v>0.9121200903003688</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9265142356238846</v>
+        <v>0.9325196898352903</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9424783082581459</v>
+        <v>0.9500650295550597</v>
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.9097784287213241</v>
+        <v>0.9164167562503072</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9553052394272404</v>
+        <v>0.9561361358138118</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9701506096545436</v>
+        <v>0.9612640543021959</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.9646631111005369</v>
+        <v>0.9592968374143475</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.9376005479352865</v>
+        <v>0.9389340874510531</v>
       </c>
     </row>
     <row r="21">
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9934818759841588</v>
+        <v>0.9933108497148778</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>1</v>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.9917416785062843</v>
+        <v>0.9929531194686072</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9875445104334651</v>
+        <v>0.9891552124997899</v>
       </c>
     </row>
     <row r="22">
@@ -1496,40 +1496,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8259673614243295</v>
+        <v>0.8303570422089663</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.957536216949771</v>
+        <v>0.9587591055431282</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8178874283238111</v>
+        <v>0.8317703282945006</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7929365411857028</v>
+        <v>0.7935661645655375</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8795700355907726</v>
+        <v>0.8867861969334966</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.921051664843995</v>
+        <v>0.9191816949182581</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8306894203050318</v>
+        <v>0.8146737308411589</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8068577017335056</v>
+        <v>0.8081728896838504</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8803557000281419</v>
+        <v>0.8825314391737523</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.948543882633594</v>
+        <v>0.9507742201476469</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.8449247078867927</v>
+        <v>0.8480248555278768</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8151856646705847</v>
+        <v>0.8187650908310024</v>
       </c>
     </row>
     <row r="24">
@@ -1540,40 +1540,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9512976998500894</v>
+        <v>0.9568858896698746</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9709048047656735</v>
+        <v>0.9614039226393618</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9040030691314939</v>
+        <v>0.9051408313620886</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9629123142728429</v>
+        <v>0.9651368560223651</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9827958425926943</v>
+        <v>0.983944655107447</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9379931899156208</v>
+        <v>0.9394496719787744</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8923359301899569</v>
+        <v>0.8891496457167104</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.947921855357978</v>
+        <v>0.9480988642759398</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9869679080265191</v>
+        <v>0.9876785497977056</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9343151498675495</v>
+        <v>0.9349060259555815</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.8855260639542345</v>
+        <v>0.885277438079774</v>
       </c>
     </row>
     <row r="25">
@@ -1609,7 +1609,7 @@
         <v>0.884994625786184</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.8974059958169681</v>
+        <v>0.8974059958169682</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.9641476999416048</v>
@@ -1621,7 +1621,7 @@
         <v>0.873166835408859</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.9033809911396237</v>
+        <v>0.9033809911396238</v>
       </c>
     </row>
     <row r="26">
@@ -1632,40 +1632,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8886287454925063</v>
+        <v>0.8932845538939931</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.888810449536845</v>
+        <v>0.8637439615700483</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7624916013773881</v>
+        <v>0.7711383968217258</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8490969273599233</v>
+        <v>0.8353482725382577</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9307369826844368</v>
+        <v>0.9352000373833905</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8443890163943909</v>
+        <v>0.8405892652367039</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8162862021619199</v>
+        <v>0.817967316830375</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8338235646283443</v>
+        <v>0.8271840694557486</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9316747196888581</v>
+        <v>0.9329374944082398</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.8854863121550406</v>
+        <v>0.8859831018238833</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.8221258725469243</v>
+        <v>0.8201623073809254</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.8578302219812686</v>
+        <v>0.8594209518719947</v>
       </c>
     </row>
     <row r="27">
@@ -1676,40 +1676,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9889648774059744</v>
+        <v>0.9890451837534437</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9863843989693899</v>
+        <v>0.9861873388264399</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9167861356658263</v>
+        <v>0.9192878910874767</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9555658234182212</v>
+        <v>0.9559096902151155</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9890964783973304</v>
+        <v>0.988676812598331</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9637334488840049</v>
+        <v>0.9625827433081586</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9353688313570105</v>
+        <v>0.9325317173628954</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9437903082758371</v>
+        <v>0.9411672821288314</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9823160777632001</v>
+        <v>0.9826862905878272</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.9688228534077452</v>
+        <v>0.969656260547397</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9122682748859618</v>
+        <v>0.9155281471809951</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9355225437738787</v>
+        <v>0.9365300523414741</v>
       </c>
     </row>
     <row r="28">
@@ -1733,7 +1733,7 @@
         <v>0.9274875357121677</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.913271629275632</v>
+        <v>0.9132716292756321</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.9675758600268706</v>
@@ -1745,7 +1745,7 @@
         <v>0.9263020049848701</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.9169537582730711</v>
+        <v>0.916953758273071</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.962251268524312</v>
@@ -1757,7 +1757,7 @@
         <v>0.9268046151106055</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.9153360564950369</v>
+        <v>0.9153360564950372</v>
       </c>
     </row>
     <row r="29">
@@ -1768,40 +1768,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.931988368735027</v>
+        <v>0.9331260916380889</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9599649641931242</v>
+        <v>0.9596991474221125</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8994514943464517</v>
+        <v>0.9003869898138395</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8880382442151928</v>
+        <v>0.8879090974725734</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.9531669611558864</v>
+        <v>0.9538738590668864</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9554336022539034</v>
+        <v>0.9556531000655132</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9010666667779161</v>
+        <v>0.9049394077150957</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8984808777683891</v>
+        <v>0.9001219476372945</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.9505960682506117</v>
+        <v>0.9491371145731852</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.9609933347317522</v>
+        <v>0.9626825982438107</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.911039451683741</v>
+        <v>0.9112598523075996</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.9015472224517337</v>
+        <v>0.9011787809497979</v>
       </c>
     </row>
     <row r="30">
@@ -1812,40 +1812,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9701093363924156</v>
+        <v>0.9697315095771659</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9845211981915254</v>
+        <v>0.9849741425795124</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9479831645274227</v>
+        <v>0.9472765439784385</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9332305759652377</v>
+        <v>0.9335665715717452</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9784904187328329</v>
+        <v>0.9796091662954302</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.9789026977120978</v>
+        <v>0.9786735761211153</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9424470768632232</v>
+        <v>0.9454843979578541</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.9323665313864793</v>
+        <v>0.9342496428840034</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.9724731139518606</v>
+        <v>0.9714765799417889</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.9787632863284047</v>
+        <v>0.9788082933674455</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.9404629235051378</v>
+        <v>0.9407332301545052</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.9283302567887274</v>
+        <v>0.9281593558564806</v>
       </c>
     </row>
     <row r="31">
@@ -2120,38 +2120,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33578</v>
+        <v>33060</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>92506</v>
+        <v>92365</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>72223</v>
+        <v>72489</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>93231</v>
+        <v>92546</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>49027</v>
+        <v>48167</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>93994</v>
+        <v>93684</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>110804</v>
+        <v>110202</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>86626</v>
+        <v>85574</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>202209</v>
+        <v>202500</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>171288</v>
+        <v>170126</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>206434</v>
+        <v>206302</v>
       </c>
     </row>
     <row r="7">
@@ -2165,35 +2165,35 @@
         <v>38562</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>100038</v>
+        <v>100046</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>82005</v>
+        <v>82593</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>103430</v>
+        <v>102999</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>56095</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>103220</v>
+        <v>103192</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>118643</v>
+        <v>118458</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>93718</v>
+        <v>93729</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>210811</v>
+        <v>210803</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>184209</v>
+        <v>184156</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>220129</v>
+        <v>220139</v>
       </c>
     </row>
     <row r="8">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>66225</v>
+        <v>66445</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>123699</v>
+        <v>123544</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>70792</v>
+        <v>69519</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>69072</v>
+        <v>68678</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>122176</v>
+        <v>121331</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>186316</v>
+        <v>185401</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>97639</v>
+        <v>97884</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>97455</v>
+        <v>97437</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>191132</v>
+        <v>190907</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>312920</v>
+        <v>312326</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>173301</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>171934</v>
+        <v>171865</v>
       </c>
     </row>
     <row r="11">
@@ -2343,37 +2343,37 @@
         <v>75472</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>130382</v>
+        <v>130380</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>81547</v>
+        <v>80746</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>79403</v>
+        <v>79399</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>128019</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>197228</v>
+        <v>197236</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>106883</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>105901</v>
+        <v>105751</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>201749</v>
+        <v>202438</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>326623</v>
+        <v>326591</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>186383</v>
+        <v>186493</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>183668</v>
+        <v>184315</v>
       </c>
     </row>
     <row r="12">
@@ -2476,38 +2476,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>59176</v>
+        <v>59305</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>70122</v>
+        <v>69792</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>28275</v>
+        <v>28299</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>64163</v>
+        <v>64068</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>87103</v>
+        <v>86183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>36215</v>
+        <v>35771</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>104808</v>
+        <v>104775</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>145269</v>
+        <v>145202</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>161531</v>
+        <v>161267</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>67864</v>
+        <v>66845</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>172939</v>
+        <v>173368</v>
       </c>
     </row>
     <row r="15">
@@ -2518,38 +2518,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>67418</v>
+        <v>67515</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>76522</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34648</v>
+        <v>34653</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>72695</v>
+        <v>72460</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
         <v>96258</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>43590</v>
+        <v>43495</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>113452</v>
+        <v>113463</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>153520</v>
+        <v>153495</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>171771</v>
+        <v>171776</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>77989</v>
+        <v>77295</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>184496</v>
+        <v>184389</v>
       </c>
     </row>
     <row r="16">
@@ -2652,40 +2652,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>68274</v>
+        <v>69006</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>69691</v>
+        <v>68918</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>85090</v>
+        <v>84920</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>68617</v>
+        <v>69510</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>95282</v>
+        <v>94218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>95735</v>
+        <v>95007</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>103346</v>
+        <v>101742</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>90598</v>
+        <v>90973</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>166497</v>
+        <v>167047</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>169898</v>
+        <v>170258</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>193398</v>
+        <v>194213</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>167125</v>
+        <v>167505</v>
       </c>
     </row>
     <row r="19">
@@ -2702,34 +2702,34 @@
         <v>80562</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>94714</v>
+        <v>94777</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>88940</v>
+        <v>88926</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>102871</v>
+        <v>102803</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>103701</v>
+        <v>103693</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>117822</v>
+        <v>117993</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>102275</v>
+        <v>102199</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>176530</v>
+        <v>176506</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>182321</v>
+        <v>182397</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>211224</v>
+        <v>210673</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>189087</v>
+        <v>188416</v>
       </c>
     </row>
     <row r="20">
@@ -2832,36 +2832,36 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>30210</v>
+        <v>30160</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29837</v>
+        <v>29607</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20520</v>
+        <v>21384</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13991</v>
+        <v>14144</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>34158</v>
+        <v>34513</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>72446</v>
+        <v>72352</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="inlineStr"/>
       <c r="K22" s="6" t="n">
-        <v>67637</v>
+        <v>67317</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>105964</v>
+        <v>106485</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>49142</v>
+        <v>49097</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>24887</v>
+        <v>24898</v>
       </c>
     </row>
     <row r="23">
@@ -2895,7 +2895,7 @@
         <v>76813</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>114722</v>
+        <v>114746</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>54977</v>
@@ -3006,32 +3006,32 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>48946</v>
+        <v>49980</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>62625</v>
+        <v>62278</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>80973</v>
+        <v>81498</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>90617</v>
+        <v>91347</v>
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>70259</v>
+        <v>70771</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>139412</v>
+        <v>139533</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>155639</v>
+        <v>154214</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>124575</v>
+        <v>123882</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>136425</v>
+        <v>136619</v>
       </c>
     </row>
     <row r="27">
@@ -3047,7 +3047,7 @@
         <v>53724</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>67833</v>
+        <v>67821</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>87395</v>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>76588</v>
+        <v>76682</v>
       </c>
       <c r="K27" s="6" t="n">
         <v>145934</v>
@@ -3069,7 +3069,7 @@
         <v>129138</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>143692</v>
+        <v>143926</v>
       </c>
     </row>
     <row r="28">
@@ -3172,40 +3172,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>90202</v>
+        <v>90682</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>138542</v>
+        <v>138719</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>60738</v>
+        <v>61769</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>152268</v>
+        <v>152389</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>148389</v>
+        <v>149606</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>171101</v>
+        <v>170754</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>101555</v>
+        <v>99597</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>214781</v>
+        <v>215131</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>244663</v>
+        <v>245268</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>313448</v>
+        <v>314185</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>166041</v>
+        <v>166650</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>373538</v>
+        <v>375178</v>
       </c>
     </row>
     <row r="31">
@@ -3216,40 +3216,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>103889</v>
+        <v>104500</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>144686</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>72101</v>
+        <v>71396</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>173597</v>
+        <v>173815</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>162449</v>
+        <v>162824</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>182571</v>
+        <v>182784</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>114673</v>
+        <v>114851</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>237534</v>
+        <v>236686</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>263441</v>
+        <v>263490</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>326146</v>
+        <v>326380</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>183608</v>
+        <v>183724</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>405769</v>
+        <v>405655</v>
       </c>
     </row>
     <row r="32">
@@ -3352,40 +3352,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>87812</v>
+        <v>88272</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>60768</v>
+        <v>59054</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>75476</v>
+        <v>76332</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>86142</v>
+        <v>84747</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>141503</v>
+        <v>142181</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>89189</v>
+        <v>88788</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>114780</v>
+        <v>115017</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>107522</v>
+        <v>106665</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>233711</v>
+        <v>234027</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>154071</v>
+        <v>154158</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>196981</v>
+        <v>196510</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>197645</v>
+        <v>198011</v>
       </c>
     </row>
     <row r="35">
@@ -3396,40 +3396,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>97727</v>
+        <v>97734</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>67439</v>
+        <v>67426</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>90749</v>
+        <v>90997</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>96943</v>
+        <v>96978</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>150375</v>
+        <v>150312</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>101795</v>
+        <v>101674</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>131525</v>
+        <v>131126</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>121702</v>
+        <v>121364</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>246414</v>
+        <v>246507</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>168571</v>
+        <v>168716</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>218579</v>
+        <v>219360</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>215545</v>
+        <v>215777</v>
       </c>
     </row>
     <row r="36">
@@ -3532,40 +3532,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>520465</v>
+        <v>521101</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>675433</v>
+        <v>675246</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>496018</v>
+        <v>496534</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>650453</v>
+        <v>650359</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>785418</v>
+        <v>786001</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>933787</v>
+        <v>934002</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>675174</v>
+        <v>678076</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>839836</v>
+        <v>841370</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1314155</v>
+        <v>1312138</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1615378</v>
+        <v>1618217</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1185055</v>
+        <v>1185341</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1503051</v>
+        <v>1502437</v>
       </c>
     </row>
     <row r="39">
@@ -3576,40 +3576,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>541754</v>
+        <v>541543</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>692711</v>
+        <v>693030</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>522781</v>
+        <v>522392</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>683555</v>
+        <v>683801</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>806285</v>
+        <v>807207</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>956725</v>
+        <v>956501</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>706180</v>
+        <v>708456</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>871510</v>
+        <v>873270</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1344399</v>
+        <v>1343022</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1645248</v>
+        <v>1645324</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1223328</v>
+        <v>1223679</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1547704</v>
+        <v>1547419</v>
       </c>
     </row>
     <row r="40">
